--- a/_site/data/deploy_original.xlsx
+++ b/_site/data/deploy_original.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel.Wood/Sites/sunshot_vision/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28440" yWindow="-2100" windowWidth="23120" windowHeight="20280"/>
+    <workbookView xWindow="27100" yWindow="-3620" windowWidth="23120" windowHeight="20280"/>
   </bookViews>
   <sheets>
     <sheet name="Deployment" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Cumulative MW-AC</t>
   </si>
@@ -189,12 +197,21 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>totals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000;\-#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -368,6 +385,7 @@
     <xf numFmtId="37" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,7 +395,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,40 +698,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>2005</v>
       </c>
@@ -749,58 +771,82 @@
       <c r="M3" s="4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="15" t="str">
+      <c r="N3" s="2">
+        <v>2005</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2010</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="str">
         <f>CONCATENATE("distPV",B3)</f>
         <v>distPV2005</v>
       </c>
-      <c r="C4" s="15" t="str">
-        <f t="shared" ref="C4:F4" si="0">CONCATENATE("distPV",C3)</f>
+      <c r="C4" s="12" t="str">
+        <f t="shared" ref="C4:E4" si="0">CONCATENATE("distPV",C3)</f>
         <v>distPV2010</v>
       </c>
-      <c r="D4" s="15" t="str">
+      <c r="D4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>distPV2015</v>
       </c>
-      <c r="E4" s="15" t="str">
+      <c r="E4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>distPV2020</v>
       </c>
-      <c r="F4" s="15" t="str">
+      <c r="F4" s="12" t="str">
         <f>CONCATENATE("utilityPV",F3)</f>
         <v>utilityPV2005</v>
       </c>
-      <c r="G4" s="15" t="str">
+      <c r="G4" s="12" t="str">
         <f t="shared" ref="G4:I4" si="1">CONCATENATE("utilityPV",G3)</f>
         <v>utilityPV2010</v>
       </c>
-      <c r="H4" s="15" t="str">
+      <c r="H4" s="12" t="str">
         <f t="shared" si="1"/>
         <v>utilityPV2015</v>
       </c>
-      <c r="I4" s="15" t="str">
+      <c r="I4" s="12" t="str">
         <f t="shared" si="1"/>
         <v>utilityPV2020</v>
       </c>
-      <c r="J4" s="15" t="str">
+      <c r="J4" s="12" t="str">
         <f>CONCATENATE("csp",J3)</f>
         <v>csp2005</v>
       </c>
-      <c r="K4" s="15" t="str">
+      <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:M4" si="2">CONCATENATE("csp",K3)</f>
         <v>csp2010</v>
       </c>
-      <c r="L4" s="15" t="str">
+      <c r="L4" s="12" t="str">
         <f t="shared" si="2"/>
         <v>csp2015</v>
       </c>
-      <c r="M4" s="15" t="str">
+      <c r="M4" s="12" t="str">
         <f t="shared" si="2"/>
         <v>csp2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -840,8 +886,24 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="17">
+        <f>B5+F5+J5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" ref="O5:Q5" si="3">C5+G5+K5</f>
+        <v>0.01</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.97900000000000009</v>
+      </c>
+      <c r="Q5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.97900000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -881,8 +943,24 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="17">
+        <f t="shared" ref="N6:N56" si="4">B6+F6+J6</f>
+        <v>0.11667</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" ref="O6:O56" si="5">C6+G6+K6</f>
+        <v>0.2</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" ref="P6:P56" si="6">D6+H6+L6</f>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" ref="Q6:Q56" si="7">E6+I6+M6</f>
+        <v>61.106923076039365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -922,8 +1000,24 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="17">
+        <f t="shared" si="4"/>
+        <v>3.3339999999999981E-2</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" si="6"/>
+        <v>17.336999999999996</v>
+      </c>
+      <c r="Q7" s="16">
+        <f t="shared" si="7"/>
+        <v>16.229101597079179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -963,8 +1057,24 @@
       <c r="M8" s="7">
         <v>280</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="17">
+        <f t="shared" si="4"/>
+        <v>19.367739999999998</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="5"/>
+        <v>137.54000000000002</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="6"/>
+        <v>2298.6370000000002</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="7"/>
+        <v>5484.5298181818171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1004,8 +1114,24 @@
       <c r="M9" s="7">
         <v>1358.3869999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="17">
+        <f t="shared" si="4"/>
+        <v>692.58570000000009</v>
+      </c>
+      <c r="O9" s="16">
+        <f t="shared" si="5"/>
+        <v>1279.44</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="6"/>
+        <v>10947.07</v>
+      </c>
+      <c r="Q9" s="16">
+        <f t="shared" si="7"/>
+        <v>23923.250945212953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1171,24 @@
       <c r="M10" s="7">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="17">
+        <f t="shared" si="4"/>
+        <v>11.101920000000005</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="5"/>
+        <v>96.929999999999993</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="6"/>
+        <v>523.64899999999989</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="7"/>
+        <v>1320.3983152411972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1086,8 +1228,24 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="17">
+        <f t="shared" si="4"/>
+        <v>3.5339799999999988</v>
+      </c>
+      <c r="O11" s="16">
+        <f t="shared" si="5"/>
+        <v>3.98</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="6"/>
+        <v>194.64599999999999</v>
+      </c>
+      <c r="Q11" s="16">
+        <f t="shared" si="7"/>
+        <v>1362.4263762609735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1285,24 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="17">
+        <f t="shared" si="4"/>
+        <v>0.58335000000000004</v>
+      </c>
+      <c r="O12" s="16">
+        <f t="shared" si="5"/>
+        <v>1.71</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="6"/>
+        <v>10.095000000000001</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" si="7"/>
+        <v>42.909090909090907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1168,8 +1342,24 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="17">
+        <f t="shared" si="4"/>
+        <v>0.95009000000000032</v>
+      </c>
+      <c r="O13" s="16">
+        <f t="shared" si="5"/>
+        <v>8.52</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="6"/>
+        <v>64.415000000000006</v>
+      </c>
+      <c r="Q13" s="16">
+        <f t="shared" si="7"/>
+        <v>630.23951739999507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1209,8 +1399,24 @@
       <c r="M14" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="17">
+        <f t="shared" si="4"/>
+        <v>7.2012600000000004</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="5"/>
+        <v>146.32999999999998</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="6"/>
+        <v>285.26300000000003</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="7"/>
+        <v>4315.2207272727264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1250,8 +1456,24 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="17">
+        <f t="shared" si="4"/>
+        <v>0.11667</v>
+      </c>
+      <c r="O15" s="16">
+        <f t="shared" si="5"/>
+        <v>2.7399999999999989</v>
+      </c>
+      <c r="P15" s="16">
+        <f t="shared" si="6"/>
+        <v>272.48100000000005</v>
+      </c>
+      <c r="Q15" s="16">
+        <f t="shared" si="7"/>
+        <v>574.9454545454546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1291,8 +1513,24 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="17">
+        <f t="shared" si="4"/>
+        <v>5.450829999999999</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="5"/>
+        <v>31.049999999999997</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="6"/>
+        <v>408.35600000000005</v>
+      </c>
+      <c r="Q16" s="16">
+        <f t="shared" si="7"/>
+        <v>408.35600000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1332,8 +1570,24 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <f t="shared" si="5"/>
+        <v>9.4299999999999979</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="6"/>
+        <v>30.416999999999991</v>
+      </c>
+      <c r="Q17" s="16">
+        <f t="shared" si="7"/>
+        <v>32.605181818181812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1373,8 +1627,24 @@
       <c r="M18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="17">
+        <f t="shared" si="4"/>
+        <v>0.11667</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="5"/>
+        <v>0.31</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="6"/>
+        <v>5.7159999999999993</v>
+      </c>
+      <c r="Q18" s="16">
+        <f t="shared" si="7"/>
+        <v>7.1625675518583449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1414,8 +1684,24 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="5"/>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="6"/>
+        <v>47.883000000000003</v>
+      </c>
+      <c r="Q19" s="16">
+        <f t="shared" si="7"/>
+        <v>1267.4841111598387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1455,8 +1741,24 @@
       <c r="M20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="17">
+        <f t="shared" si="4"/>
+        <v>5.0009999999999999E-2</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="6"/>
+        <v>128.696</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="7"/>
+        <v>698.66824467272238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1496,8 +1798,24 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="6"/>
+        <v>5.15</v>
+      </c>
+      <c r="Q21" s="16">
+        <f t="shared" si="7"/>
+        <v>5.0590909090909095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1537,8 +1855,24 @@
       <c r="M22" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="5"/>
+        <v>0.51</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="6"/>
+        <v>4.1849999999999987</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" si="7"/>
+        <v>577.12451739999506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1578,8 +1912,24 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="17">
+        <f t="shared" si="4"/>
+        <v>3.3339999999999981E-2</v>
+      </c>
+      <c r="O23" s="16">
+        <f t="shared" si="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="6"/>
+        <v>136.67700000000002</v>
+      </c>
+      <c r="Q23" s="16">
+        <f t="shared" si="7"/>
+        <v>137.03636363636363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1619,8 +1969,24 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="17">
+        <f t="shared" si="4"/>
+        <v>4.4505299999999961</v>
+      </c>
+      <c r="O24" s="16">
+        <f t="shared" si="5"/>
+        <v>47.74</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="6"/>
+        <v>1063.1799999999998</v>
+      </c>
+      <c r="Q24" s="16">
+        <f t="shared" si="7"/>
+        <v>2425.6163636363635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1660,8 +2026,24 @@
       <c r="M25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="17">
+        <f t="shared" si="4"/>
+        <v>1.3501699999999999</v>
+      </c>
+      <c r="O25" s="16">
+        <f t="shared" si="5"/>
+        <v>12.46</v>
+      </c>
+      <c r="P25" s="16">
+        <f t="shared" si="6"/>
+        <v>334.18899999999996</v>
+      </c>
+      <c r="Q25" s="16">
+        <f t="shared" si="7"/>
+        <v>2194.0813771594958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1701,8 +2083,24 @@
       <c r="M26" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="17">
+        <f t="shared" si="4"/>
+        <v>0.21666999999999997</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="5"/>
+        <v>2.5700000000000003</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="6"/>
+        <v>17.355</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="7"/>
+        <v>92.327272727272728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1742,8 +2140,24 @@
       <c r="M27" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="17">
+        <f t="shared" si="4"/>
+        <v>0.45000999999999997</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="5"/>
+        <v>3.4199999999999995</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" si="6"/>
+        <v>19.881000000000004</v>
+      </c>
+      <c r="Q27" s="16">
+        <f t="shared" si="7"/>
+        <v>912.11080830234414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1783,8 +2197,24 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="17">
+        <f t="shared" si="4"/>
+        <v>0.56672</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" si="5"/>
+        <v>8.1299999999999972</v>
+      </c>
+      <c r="P28" s="16">
+        <f t="shared" si="6"/>
+        <v>29.396999999999988</v>
+      </c>
+      <c r="Q28" s="16">
+        <f t="shared" si="7"/>
+        <v>412.55501215500908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1824,8 +2254,24 @@
       <c r="M29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="17">
+        <f t="shared" si="4"/>
+        <v>0.11667</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.21</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="6"/>
+        <v>124.26099999999997</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="7"/>
+        <v>424.80909090909086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1865,8 +2311,24 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="17">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="6"/>
+        <v>0.85399999999999987</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="7"/>
+        <v>3.8299999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1906,8 +2368,24 @@
       <c r="M31" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="17">
+        <f t="shared" si="4"/>
+        <v>0.45000999999999991</v>
+      </c>
+      <c r="O31" s="16">
+        <f t="shared" si="5"/>
+        <v>2.1799999999999997</v>
+      </c>
+      <c r="P31" s="16">
+        <f t="shared" si="6"/>
+        <v>4.9039999999999981</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" si="7"/>
+        <v>8.0708477385532529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1947,8 +2425,24 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="17">
+        <f t="shared" si="4"/>
+        <v>2.2504100000000005</v>
+      </c>
+      <c r="O32" s="16">
+        <f t="shared" si="5"/>
+        <v>20.95</v>
+      </c>
+      <c r="P32" s="16">
+        <f t="shared" si="6"/>
+        <v>1577.5420000000001</v>
+      </c>
+      <c r="Q32" s="16">
+        <f t="shared" si="7"/>
+        <v>4577.5312177085943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1988,8 +2482,24 @@
       <c r="M33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="16">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="P33" s="16">
+        <f t="shared" si="6"/>
+        <v>0.249</v>
+      </c>
+      <c r="Q33" s="16">
+        <f t="shared" si="7"/>
+        <v>5.6363636363636352E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2029,8 +2539,24 @@
       <c r="M34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" si="6"/>
+        <v>5.37</v>
+      </c>
+      <c r="Q34" s="16">
+        <f t="shared" si="7"/>
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2070,8 +2596,24 @@
       <c r="M35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="17">
+        <f t="shared" si="4"/>
+        <v>0.20001999999999992</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" si="5"/>
+        <v>1.8800000000000001</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="6"/>
+        <v>26.914000000000009</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" si="7"/>
+        <v>301.38959622601635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2111,8 +2653,24 @@
       <c r="M36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="17">
+        <f t="shared" si="4"/>
+        <v>29.087269999999997</v>
+      </c>
+      <c r="O36" s="16">
+        <f t="shared" si="5"/>
+        <v>194.5</v>
+      </c>
+      <c r="P36" s="16">
+        <f t="shared" si="6"/>
+        <v>1410.3489999999997</v>
+      </c>
+      <c r="Q36" s="16">
+        <f t="shared" si="7"/>
+        <v>4756.64075124794</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2152,8 +2710,24 @@
       <c r="M37" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="17">
+        <f t="shared" si="4"/>
+        <v>0.40007999999999988</v>
+      </c>
+      <c r="O37" s="16">
+        <f t="shared" si="5"/>
+        <v>50.2</v>
+      </c>
+      <c r="P37" s="16">
+        <f t="shared" si="6"/>
+        <v>367.80999999999995</v>
+      </c>
+      <c r="Q37" s="16">
+        <f t="shared" si="7"/>
+        <v>956.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2193,8 +2767,24 @@
       <c r="M38" s="7">
         <v>185.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="17">
+        <f t="shared" si="4"/>
+        <v>5.9845499999999969</v>
+      </c>
+      <c r="O38" s="16">
+        <f t="shared" si="5"/>
+        <v>148.72</v>
+      </c>
+      <c r="P38" s="16">
+        <f t="shared" si="6"/>
+        <v>1132.9949999999999</v>
+      </c>
+      <c r="Q38" s="16">
+        <f t="shared" si="7"/>
+        <v>1640.5777272727271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2234,8 +2824,24 @@
       <c r="M39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="17">
+        <f t="shared" si="4"/>
+        <v>12.31753</v>
+      </c>
+      <c r="O39" s="16">
+        <f t="shared" si="5"/>
+        <v>41.47</v>
+      </c>
+      <c r="P39" s="16">
+        <f t="shared" si="6"/>
+        <v>539.45100000000002</v>
+      </c>
+      <c r="Q39" s="16">
+        <f t="shared" si="7"/>
+        <v>5461.5100909090906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2275,8 +2881,24 @@
       <c r="M40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0000399999999998</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" si="5"/>
+        <v>21.47</v>
+      </c>
+      <c r="P40" s="16">
+        <f t="shared" si="6"/>
+        <v>118.36</v>
+      </c>
+      <c r="Q40" s="16">
+        <f t="shared" si="7"/>
+        <v>818.32280186091873</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2316,8 +2938,24 @@
       <c r="M41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="P41" s="16">
+        <f t="shared" si="6"/>
+        <v>5.26</v>
+      </c>
+      <c r="Q41" s="16">
+        <f t="shared" si="7"/>
+        <v>5.0327272727272723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2357,8 +2995,24 @@
       <c r="M42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="17">
+        <f t="shared" si="4"/>
+        <v>3.3337599999999989</v>
+      </c>
+      <c r="O42" s="16">
+        <f t="shared" si="5"/>
+        <v>23.110000000000003</v>
+      </c>
+      <c r="P42" s="16">
+        <f t="shared" si="6"/>
+        <v>112.54000000000003</v>
+      </c>
+      <c r="Q42" s="16">
+        <f t="shared" si="7"/>
+        <v>208.00999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2398,8 +3052,24 @@
       <c r="M43" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="17">
+        <f t="shared" si="4"/>
+        <v>1.7168899999999996</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" si="5"/>
+        <v>50.3</v>
+      </c>
+      <c r="P43" s="16">
+        <f t="shared" si="6"/>
+        <v>241.60700000000003</v>
+      </c>
+      <c r="Q43" s="16">
+        <f t="shared" si="7"/>
+        <v>1019.666136321744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2439,8 +3109,24 @@
       <c r="M44" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="17">
+        <f t="shared" si="4"/>
+        <v>0.43333999999999995</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" si="5"/>
+        <v>1.97</v>
+      </c>
+      <c r="P44" s="16">
+        <f t="shared" si="6"/>
+        <v>15.645</v>
+      </c>
+      <c r="Q44" s="16">
+        <f t="shared" si="7"/>
+        <v>323.00512662486273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2480,8 +3166,24 @@
       <c r="M45" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="17">
+        <f t="shared" si="4"/>
+        <v>1.666999999999999E-2</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" si="5"/>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="P45" s="16">
+        <f t="shared" si="6"/>
+        <v>9.838000000000001</v>
+      </c>
+      <c r="Q45" s="16">
+        <f t="shared" si="7"/>
+        <v>319.9927359873609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2521,8 +3223,24 @@
       <c r="M46" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="16">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="P46" s="16">
+        <f t="shared" si="6"/>
+        <v>0.29600000000000004</v>
+      </c>
+      <c r="Q46" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26468817871712819</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2562,8 +3280,24 @@
       <c r="M47" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="17">
+        <f t="shared" si="4"/>
+        <v>0.40001999999999999</v>
+      </c>
+      <c r="O47" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="16">
+        <f t="shared" si="6"/>
+        <v>47.710999999999999</v>
+      </c>
+      <c r="Q47" s="16">
+        <f t="shared" si="7"/>
+        <v>697.49406285454052</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2603,8 +3337,24 @@
       <c r="M48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="17">
+        <f t="shared" si="4"/>
+        <v>3.0168900000000001</v>
+      </c>
+      <c r="O48" s="16">
+        <f t="shared" si="5"/>
+        <v>30.72</v>
+      </c>
+      <c r="P48" s="16">
+        <f t="shared" si="6"/>
+        <v>418.79899999999998</v>
+      </c>
+      <c r="Q48" s="16">
+        <f t="shared" si="7"/>
+        <v>5988.5144194539907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2644,8 +3394,24 @@
       <c r="M49" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="17">
+        <f t="shared" si="4"/>
+        <v>0.26667999999999992</v>
+      </c>
+      <c r="O49" s="16">
+        <f t="shared" si="5"/>
+        <v>3.45</v>
+      </c>
+      <c r="P49" s="16">
+        <f t="shared" si="6"/>
+        <v>231.45400000000001</v>
+      </c>
+      <c r="Q49" s="16">
+        <f t="shared" si="7"/>
+        <v>232.95400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2685,8 +3451,24 @@
       <c r="M50" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="17">
+        <f t="shared" si="4"/>
+        <v>0.38335000000000008</v>
+      </c>
+      <c r="O50" s="16">
+        <f t="shared" si="5"/>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="P50" s="16">
+        <f t="shared" si="6"/>
+        <v>28.109999999999992</v>
+      </c>
+      <c r="Q50" s="16">
+        <f t="shared" si="7"/>
+        <v>603.28406285454059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2726,8 +3508,24 @@
       <c r="M51" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="17">
+        <f t="shared" si="4"/>
+        <v>0.61670999999999976</v>
+      </c>
+      <c r="O51" s="16">
+        <f t="shared" si="5"/>
+        <v>6.3199999999999994</v>
+      </c>
+      <c r="P51" s="16">
+        <f t="shared" si="6"/>
+        <v>92.762000000000015</v>
+      </c>
+      <c r="Q51" s="16">
+        <f t="shared" si="7"/>
+        <v>156.11345115278127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2767,8 +3565,24 @@
       <c r="M52" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="17">
+        <f t="shared" si="4"/>
+        <v>1.4501500000000001</v>
+      </c>
+      <c r="O52" s="16">
+        <f t="shared" si="5"/>
+        <v>7.8800000000000008</v>
+      </c>
+      <c r="P52" s="16">
+        <f t="shared" si="6"/>
+        <v>66.498000000000019</v>
+      </c>
+      <c r="Q52" s="16">
+        <f t="shared" si="7"/>
+        <v>85.163636363636357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2808,8 +3622,24 @@
       <c r="M53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="17">
+        <f t="shared" si="4"/>
+        <v>1.30016</v>
+      </c>
+      <c r="O53" s="16">
+        <f t="shared" si="5"/>
+        <v>3.9099999999999993</v>
+      </c>
+      <c r="P53" s="16">
+        <f t="shared" si="6"/>
+        <v>22.347000000000008</v>
+      </c>
+      <c r="Q53" s="16">
+        <f t="shared" si="7"/>
+        <v>64.374545454545441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2849,8 +3679,24 @@
       <c r="M54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="16">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="P54" s="16">
+        <f t="shared" si="6"/>
+        <v>3.2179999999999991</v>
+      </c>
+      <c r="Q54" s="16">
+        <f t="shared" si="7"/>
+        <v>309.10751739999495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2890,8 +3736,24 @@
       <c r="M55" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1">
+      <c r="N55" s="17">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="O55" s="16">
+        <f t="shared" si="5"/>
+        <v>1.03</v>
+      </c>
+      <c r="P55" s="16">
+        <f t="shared" si="6"/>
+        <v>2.6510000000000002</v>
+      </c>
+      <c r="Q55" s="16">
+        <f t="shared" si="7"/>
+        <v>2.770816613322701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -2931,8 +3793,41 @@
       <c r="M56" s="11">
         <v>1932.587</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="15" thickTop="1"/>
+      <c r="N56" s="16">
+        <f t="shared" si="4"/>
+        <v>813.21686999999997</v>
+      </c>
+      <c r="O56" s="16">
+        <f t="shared" si="5"/>
+        <v>2427.41</v>
+      </c>
+      <c r="P56" s="16">
+        <f t="shared" si="6"/>
+        <v>23454.101999999992</v>
+      </c>
+      <c r="Q56" s="16">
+        <f t="shared" si="7"/>
+        <v>75873.078594867897</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="N57" s="16">
+        <f>COUNTIF(N5:N55,"&gt;0")</f>
+        <v>41</v>
+      </c>
+      <c r="O57" s="16">
+        <f t="shared" ref="O57:Q57" si="8">COUNTIF(O5:O55,"&gt;0")</f>
+        <v>48</v>
+      </c>
+      <c r="P57" s="16">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="Q57" s="16">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
@@ -2940,11 +3835,6 @@
     <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2954,14 +3844,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2971,13 +3856,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>